--- a/relations/datasets/Ilionx.xlsx
+++ b/relations/datasets/Ilionx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnadorp/Documents/LOCAL/Private/D3/relations/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB227D7-BDDC-064E-B426-5BA5B943EEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5E888F-1537-A44C-85C1-CD11924356A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4008,11 +4008,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E183" sqref="E183"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5432,7 +5432,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>68</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>68</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>68</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>68</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>68</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>68</v>
       </c>
@@ -5480,15 +5480,16 @@
         <v>316</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>68</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="E183" s="1"/>
+    </row>
+    <row r="184" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>68</v>
       </c>
@@ -5496,7 +5497,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>68</v>
       </c>
@@ -5504,7 +5505,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>68</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>68</v>
       </c>
